--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aidan\Desktop\Data Analytics Homework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sriranjinilatha/Library/Application Support/Box/Box Edit/Documents/242398523088/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A16C2F-1814-414F-B276-192A64F2D78F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="11625" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="920" windowWidth="24960" windowHeight="13720" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Dictionary'!$A$1:$D$25</definedName>
   </definedNames>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -182,6 +181,12 @@
     <t>NumSatisfactoryTrades</t>
   </si>
   <si>
+    <t>NumTrades60Ever2DerogPubRec</t>
+  </si>
+  <si>
+    <t>NumTrades90Ever2DerogPubRec</t>
+  </si>
+  <si>
     <t>NumTotalTrades</t>
   </si>
   <si>
@@ -200,10 +205,16 @@
     <t>NumInstallTradesWBalance</t>
   </si>
   <si>
+    <t>NumBank2NatlTradesWHighUtilization</t>
+  </si>
+  <si>
     <t>RiskPerformance</t>
   </si>
   <si>
     <t>Monotonicity Constraint (with respect to probability of bad = 1)</t>
+  </si>
+  <si>
+    <t>*For a more detailed example of the monotonicity contraint, please see the "challenge rules" page</t>
   </si>
   <si>
     <t>derogatory comment</t>
@@ -306,23 +317,11 @@
   <si>
     <t>8, 9</t>
   </si>
-  <si>
-    <t>*The variable “MSinceOldestTradeOpen” which represents the number of months since the oldest account was open has a “monotonically decreasing pattern”. This indicates when the value of “MSinceOldestTradeOpen” variable increases, the probability of a bad target decreases as it is observed in the data. We have provided expected patterns for many of the predictor variables in the data dictionary. Participants are encouraged (but not required) to apply these patterns using any methodology to maintain the monotonic patterns.</t>
-  </si>
-  <si>
-    <t>NumTrades60Ever/DerogPubRec</t>
-  </si>
-  <si>
-    <t>NumTrades90Ever/DerogPubRec</t>
-  </si>
-  <si>
-    <t>NumBank/NatlTradesWHighUtilization</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -457,9 +456,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -727,23 +723,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.875" customWidth="1"/>
-    <col min="2" max="2" width="110.875" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="11" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -751,15 +746,15 @@
         <v>15</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>42</v>
@@ -769,7 +764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
@@ -791,7 +786,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -805,7 +800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -819,7 +814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -833,7 +828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
@@ -847,9 +842,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>37</v>
@@ -861,9 +856,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>38</v>
@@ -875,7 +870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
@@ -889,7 +884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -903,7 +898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -911,13 +906,13 @@
         <v>40</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -925,15 +920,15 @@
         <v>39</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>33</v>
@@ -945,9 +940,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>6</v>
@@ -959,7 +954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -973,7 +968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -987,9 +982,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>9</v>
@@ -1001,9 +996,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>32</v>
@@ -1015,7 +1010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1029,7 +1024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -1043,9 +1038,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>10</v>
@@ -1057,9 +1052,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>11</v>
@@ -1071,9 +1066,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>41</v>
@@ -1085,7 +1080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1099,188 +1094,188 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D25" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D25"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.875" style="9"/>
+    <col min="1" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>1</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>2</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>3</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>4</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>5</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>6</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>7</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>8</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>9</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1289,26 +1284,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
